--- a/Kalkulation.xlsx
+++ b/Kalkulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projektablage\99_Kleinaufträge\13_HuberGSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA324FF-8C2B-48F9-AE51-64FA1E445D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ABB2CC-78E2-4FC7-9DB6-60DF974547C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Netzteil</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>DI DO</t>
+  </si>
+  <si>
+    <t>20% MZS</t>
+  </si>
+  <si>
+    <t>6hh a 100€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abrechnung </t>
   </si>
 </sst>
 </file>
@@ -195,11 +204,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -768,13 +776,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5A977C-417A-4325-8D97-C757F7BECB0C}">
-  <dimension ref="A2:F30"/>
+  <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1056,31 +1067,42 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-    </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f>SUM(E2:E24)</f>
         <v>6175.8121848739502</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="3">
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2">
         <f>E26*1.2</f>
         <v>7410.9746218487398</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E29">
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="2">
         <f>60*100</f>
         <v>6000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30">
+      <c r="E30" s="2">
         <f>E27+E29</f>
         <v>13410.97462184874</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2">
+        <v>14000</v>
       </c>
     </row>
   </sheetData>
